--- a/Download/EXCEL/新フォーマット(自動化対応版)_15分区切り.xlsx
+++ b/Download/EXCEL/新フォーマット(自動化対応版)_15分区切り.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amt_Work\フォーマット\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF14EAA9-CDCE-4402-80D3-0D89325F8C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947FEAC6-0661-436E-B2B1-BBBE75443E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="雛形 (自動化対応版)" sheetId="5" r:id="rId1"/>
@@ -2069,6 +2069,24 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="19" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="19" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="19" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="19" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="56" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2101,24 +2119,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="19" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="19" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="19" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="19" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2610,7 +2610,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>276226</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>175489</xdr:rowOff>
     </xdr:to>
@@ -3409,88 +3409,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>331695</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>40341</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFBFB91-3E43-4591-A9D9-3BC5643E6AE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5026960" y="3357282"/>
-          <a:ext cx="2021540" cy="2402541"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -103455"/>
-            <a:gd name="adj2" fmla="val 23951"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>利用者の名前の後ろに利用者の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>ID(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ケアウイング参照</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -3866,6 +3784,88 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>331695</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFBFB91-3E43-4591-A9D9-3BC5643E6AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5026960" y="3357282"/>
+          <a:ext cx="2021540" cy="2402541"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -103455"/>
+            <a:gd name="adj2" fmla="val 23951"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>利用者の名前の後ろに利用者の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>ID(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ケアウイング参照</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4171,16 +4171,16 @@
   </sheetPr>
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
-    <col min="2" max="21" width="9.25" style="2" customWidth="1"/>
-    <col min="22" max="23" width="9.25" style="99" customWidth="1"/>
-    <col min="24" max="31" width="9.25" style="2" customWidth="1"/>
+    <col min="2" max="21" width="8.75" style="2" customWidth="1"/>
+    <col min="22" max="23" width="8.75" style="99" customWidth="1"/>
+    <col min="24" max="31" width="8.75" style="2" customWidth="1"/>
     <col min="32" max="32" width="9" style="2" customWidth="1"/>
     <col min="33" max="16384" width="9" style="2"/>
   </cols>
@@ -4189,62 +4189,62 @@
     <row r="3" spans="1:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="208">
-        <v>45152</v>
-      </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
+      <c r="B4" s="214">
+        <v>45292</v>
+      </c>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="208">
+      <c r="G4" s="214">
         <f>B4+1</f>
-        <v>45153</v>
-      </c>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
+        <v>45293</v>
+      </c>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
       <c r="K4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="208">
+      <c r="L4" s="214">
         <f>G4+1</f>
-        <v>45154</v>
-      </c>
-      <c r="M4" s="209"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
+        <v>45294</v>
+      </c>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
       <c r="P4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="208">
+      <c r="Q4" s="214">
         <f>L4+1</f>
-        <v>45155</v>
-      </c>
-      <c r="R4" s="209"/>
-      <c r="S4" s="209"/>
-      <c r="T4" s="209"/>
+        <v>45295</v>
+      </c>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
+      <c r="T4" s="215"/>
       <c r="U4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="208">
+      <c r="V4" s="214">
         <f>Q4+1</f>
-        <v>45156</v>
-      </c>
-      <c r="W4" s="209"/>
-      <c r="X4" s="209"/>
-      <c r="Y4" s="209"/>
+        <v>45296</v>
+      </c>
+      <c r="W4" s="215"/>
+      <c r="X4" s="215"/>
+      <c r="Y4" s="215"/>
       <c r="Z4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="208">
+      <c r="AA4" s="214">
         <f>V4+1</f>
-        <v>45157</v>
-      </c>
-      <c r="AB4" s="209"/>
-      <c r="AC4" s="209"/>
-      <c r="AD4" s="209"/>
+        <v>45297</v>
+      </c>
+      <c r="AB4" s="215"/>
+      <c r="AC4" s="215"/>
+      <c r="AD4" s="215"/>
       <c r="AE4" s="4" t="s">
         <v>5</v>
       </c>
@@ -4253,36 +4253,36 @@
       <c r="A5" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="219"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="221"/>
-      <c r="L5" s="219"/>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
-      <c r="P5" s="221"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="220"/>
-      <c r="S5" s="220"/>
-      <c r="T5" s="220"/>
-      <c r="U5" s="221"/>
-      <c r="V5" s="222"/>
-      <c r="W5" s="223"/>
-      <c r="X5" s="223"/>
-      <c r="Y5" s="223"/>
-      <c r="Z5" s="224"/>
-      <c r="AA5" s="219"/>
-      <c r="AB5" s="220"/>
-      <c r="AC5" s="220"/>
-      <c r="AD5" s="220"/>
-      <c r="AE5" s="221"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="209"/>
+      <c r="I5" s="209"/>
+      <c r="J5" s="209"/>
+      <c r="K5" s="210"/>
+      <c r="L5" s="208"/>
+      <c r="M5" s="209"/>
+      <c r="N5" s="209"/>
+      <c r="O5" s="209"/>
+      <c r="P5" s="210"/>
+      <c r="Q5" s="208"/>
+      <c r="R5" s="209"/>
+      <c r="S5" s="209"/>
+      <c r="T5" s="209"/>
+      <c r="U5" s="210"/>
+      <c r="V5" s="211"/>
+      <c r="W5" s="212"/>
+      <c r="X5" s="212"/>
+      <c r="Y5" s="212"/>
+      <c r="Z5" s="213"/>
+      <c r="AA5" s="208"/>
+      <c r="AB5" s="209"/>
+      <c r="AC5" s="209"/>
+      <c r="AD5" s="209"/>
+      <c r="AE5" s="210"/>
     </row>
     <row r="6" spans="1:31" s="1" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="107" t="s">
@@ -5888,23 +5888,23 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="V4:Y4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="AA5:AE5"/>
     <mergeCell ref="V5:Z5"/>
     <mergeCell ref="Q5:U5"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="G5:K5"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="V4:Y4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5917,8 +5917,8 @@
   <dimension ref="A1:AE46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -5933,62 +5933,62 @@
     <row r="3" spans="1:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:31" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="208">
+      <c r="B4" s="214">
         <v>43486</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="208">
+      <c r="G4" s="214">
         <f>B4+1</f>
         <v>43487</v>
       </c>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
       <c r="K4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="213">
+      <c r="L4" s="219">
         <f>G4+1</f>
         <v>43488</v>
       </c>
-      <c r="M4" s="209"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
       <c r="P4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="208">
+      <c r="Q4" s="214">
         <f>L4+1</f>
         <v>43489</v>
       </c>
-      <c r="R4" s="209"/>
-      <c r="S4" s="209"/>
-      <c r="T4" s="209"/>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
+      <c r="T4" s="215"/>
       <c r="U4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="208">
+      <c r="V4" s="214">
         <f>Q4+1</f>
         <v>43490</v>
       </c>
-      <c r="W4" s="209"/>
-      <c r="X4" s="209"/>
-      <c r="Y4" s="209"/>
+      <c r="W4" s="215"/>
+      <c r="X4" s="215"/>
+      <c r="Y4" s="215"/>
       <c r="Z4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="208">
+      <c r="AA4" s="214">
         <f>V4+1</f>
         <v>43491</v>
       </c>
-      <c r="AB4" s="209"/>
-      <c r="AC4" s="209"/>
-      <c r="AD4" s="209"/>
+      <c r="AB4" s="215"/>
+      <c r="AC4" s="215"/>
+      <c r="AD4" s="215"/>
       <c r="AE4" s="4" t="s">
         <v>5</v>
       </c>
@@ -5997,36 +5997,36 @@
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="214"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="218"/>
-      <c r="L5" s="214"/>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="217"/>
-      <c r="P5" s="218"/>
-      <c r="Q5" s="214"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="217"/>
-      <c r="U5" s="218"/>
-      <c r="V5" s="214"/>
-      <c r="W5" s="217"/>
-      <c r="X5" s="217"/>
-      <c r="Y5" s="217"/>
-      <c r="Z5" s="218"/>
-      <c r="AA5" s="210"/>
-      <c r="AB5" s="211"/>
-      <c r="AC5" s="211"/>
-      <c r="AD5" s="211"/>
-      <c r="AE5" s="212"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="223"/>
+      <c r="J5" s="223"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="220"/>
+      <c r="M5" s="223"/>
+      <c r="N5" s="223"/>
+      <c r="O5" s="223"/>
+      <c r="P5" s="224"/>
+      <c r="Q5" s="220"/>
+      <c r="R5" s="223"/>
+      <c r="S5" s="223"/>
+      <c r="T5" s="223"/>
+      <c r="U5" s="224"/>
+      <c r="V5" s="220"/>
+      <c r="W5" s="223"/>
+      <c r="X5" s="223"/>
+      <c r="Y5" s="223"/>
+      <c r="Z5" s="224"/>
+      <c r="AA5" s="216"/>
+      <c r="AB5" s="217"/>
+      <c r="AC5" s="217"/>
+      <c r="AD5" s="217"/>
+      <c r="AE5" s="218"/>
     </row>
     <row r="6" spans="1:31" s="10" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="107" t="s">

--- a/Download/EXCEL/新フォーマット(自動化対応版)_15分区切り.xlsx
+++ b/Download/EXCEL/新フォーマット(自動化対応版)_15分区切り.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amt_Work\フォーマット\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947FEAC6-0661-436E-B2B1-BBBE75443E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556EB119-0256-4D5D-AD27-7400ECA140FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2069,6 +2069,12 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="19" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2086,12 +2092,6 @@
     </xf>
     <xf numFmtId="56" fontId="19" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4172,7 +4172,7 @@
   <dimension ref="A1:AE51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -4189,62 +4189,62 @@
     <row r="3" spans="1:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="214">
+      <c r="B4" s="208">
         <v>45292</v>
       </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
       <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="214">
+      <c r="G4" s="208">
         <f>B4+1</f>
         <v>45293</v>
       </c>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
       <c r="K4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="214">
+      <c r="L4" s="208">
         <f>G4+1</f>
         <v>45294</v>
       </c>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
       <c r="P4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="214">
+      <c r="Q4" s="208">
         <f>L4+1</f>
         <v>45295</v>
       </c>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
+      <c r="R4" s="209"/>
+      <c r="S4" s="209"/>
+      <c r="T4" s="209"/>
       <c r="U4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="214">
+      <c r="V4" s="208">
         <f>Q4+1</f>
         <v>45296</v>
       </c>
-      <c r="W4" s="215"/>
-      <c r="X4" s="215"/>
-      <c r="Y4" s="215"/>
+      <c r="W4" s="209"/>
+      <c r="X4" s="209"/>
+      <c r="Y4" s="209"/>
       <c r="Z4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="214">
+      <c r="AA4" s="208">
         <f>V4+1</f>
         <v>45297</v>
       </c>
-      <c r="AB4" s="215"/>
-      <c r="AC4" s="215"/>
-      <c r="AD4" s="215"/>
+      <c r="AB4" s="209"/>
+      <c r="AC4" s="209"/>
+      <c r="AD4" s="209"/>
       <c r="AE4" s="4" t="s">
         <v>5</v>
       </c>
@@ -4253,36 +4253,36 @@
       <c r="A5" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="208"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="210"/>
-      <c r="L5" s="208"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="209"/>
-      <c r="O5" s="209"/>
-      <c r="P5" s="210"/>
-      <c r="Q5" s="208"/>
-      <c r="R5" s="209"/>
-      <c r="S5" s="209"/>
-      <c r="T5" s="209"/>
-      <c r="U5" s="210"/>
-      <c r="V5" s="211"/>
-      <c r="W5" s="212"/>
-      <c r="X5" s="212"/>
-      <c r="Y5" s="212"/>
-      <c r="Z5" s="213"/>
-      <c r="AA5" s="208"/>
-      <c r="AB5" s="209"/>
-      <c r="AC5" s="209"/>
-      <c r="AD5" s="209"/>
-      <c r="AE5" s="210"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="212"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="212"/>
+      <c r="L5" s="210"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="211"/>
+      <c r="P5" s="212"/>
+      <c r="Q5" s="210"/>
+      <c r="R5" s="211"/>
+      <c r="S5" s="211"/>
+      <c r="T5" s="211"/>
+      <c r="U5" s="212"/>
+      <c r="V5" s="213"/>
+      <c r="W5" s="214"/>
+      <c r="X5" s="214"/>
+      <c r="Y5" s="214"/>
+      <c r="Z5" s="215"/>
+      <c r="AA5" s="210"/>
+      <c r="AB5" s="211"/>
+      <c r="AC5" s="211"/>
+      <c r="AD5" s="211"/>
+      <c r="AE5" s="212"/>
     </row>
     <row r="6" spans="1:31" s="1" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="107" t="s">
@@ -4739,7 +4739,7 @@
     </row>
     <row r="19" spans="1:31" s="94" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="95">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="B19" s="140"/>
       <c r="C19" s="141"/>
@@ -5888,23 +5888,23 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="AA5:AE5"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="G5:K5"/>
     <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="AA5:AE5"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="G5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5933,22 +5933,22 @@
     <row r="3" spans="1:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:31" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="214">
+      <c r="B4" s="208">
         <v>43486</v>
       </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
       <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="214">
+      <c r="G4" s="208">
         <f>B4+1</f>
         <v>43487</v>
       </c>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
       <c r="K4" s="4" t="s">
         <v>1</v>
       </c>
@@ -5956,39 +5956,39 @@
         <f>G4+1</f>
         <v>43488</v>
       </c>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
       <c r="P4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="214">
+      <c r="Q4" s="208">
         <f>L4+1</f>
         <v>43489</v>
       </c>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
+      <c r="R4" s="209"/>
+      <c r="S4" s="209"/>
+      <c r="T4" s="209"/>
       <c r="U4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="214">
+      <c r="V4" s="208">
         <f>Q4+1</f>
         <v>43490</v>
       </c>
-      <c r="W4" s="215"/>
-      <c r="X4" s="215"/>
-      <c r="Y4" s="215"/>
+      <c r="W4" s="209"/>
+      <c r="X4" s="209"/>
+      <c r="Y4" s="209"/>
       <c r="Z4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="214">
+      <c r="AA4" s="208">
         <f>V4+1</f>
         <v>43491</v>
       </c>
-      <c r="AB4" s="215"/>
-      <c r="AC4" s="215"/>
-      <c r="AD4" s="215"/>
+      <c r="AB4" s="209"/>
+      <c r="AC4" s="209"/>
+      <c r="AD4" s="209"/>
       <c r="AE4" s="4" t="s">
         <v>5</v>
       </c>

--- a/Download/EXCEL/新フォーマット(自動化対応版)_15分区切り.xlsx
+++ b/Download/EXCEL/新フォーマット(自動化対応版)_15分区切り.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amt_Work\フォーマット\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amtPlusWeb\Download\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556EB119-0256-4D5D-AD27-7400ECA140FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FA35E-9F9A-43EC-BF6D-38C80A76F48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="雛形 (自動化対応版)" sheetId="5" r:id="rId1"/>
-    <sheet name="例 (自動化対応版)" sheetId="2" r:id="rId2"/>
+    <sheet name="例 (自動化対応版)" sheetId="2" r:id="rId1"/>
+    <sheet name="雛形 (自動化対応版)" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'雛形 (自動化対応版)'!$A$1:$AE$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'例 (自動化対応版)'!$A$1:$Z$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'雛形 (自動化対応版)'!$A$1:$AE$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'例 (自動化対応版)'!$A$1:$Z$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2069,12 +2069,39 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="19" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2092,33 +2119,6 @@
     </xf>
     <xf numFmtId="56" fontId="19" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2128,8 +2128,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFC6E0B4"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFBDD7EE"/>
       <color rgb="FF6699FF"/>
-      <color rgb="FFFFCC99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2144,578 +2147,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>51954</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>11546</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>242455</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA7D16D-EF90-4139-9DD0-C92073EC2B7B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14996679" y="3250046"/>
-          <a:ext cx="4970896" cy="14804159"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>・日付</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>月曜日の日付を入れると火曜日以降は自動計算</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>・訪問先を色わけでスケジュールに入れていく</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ー簡単操作方法ー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・色をコピーする場合はコピーしたい色のセルを</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>クリック→ホーム→クリップボードにあるブラシ選択→色を付けたいセルをドラッグ→完了</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・時間入力</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>開始時間を入力し</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Alt+Enter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>を押すと、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>つのセル内で改行されるので、その後終了時間を入力する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>97558</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>109683</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175489</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCB0B5D-E6B3-4853-B578-6FCF43E7830A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="-588" r="74682" b="44384"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21953103" y="8093365"/>
-          <a:ext cx="5031510" cy="5521035"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>103910</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80818</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>311727</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2750B402-1EE4-4007-9DD5-4EAF6505CE47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15734435" y="7691293"/>
-          <a:ext cx="893617" cy="578139"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>↑ブラシ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3869,6 +3300,582 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>242455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA7D16D-EF90-4139-9DD0-C92073EC2B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14996679" y="3250046"/>
+          <a:ext cx="4970896" cy="14804159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・日付</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>月曜日の日付を入れると火曜日以降は自動計算</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・訪問先を色わけでスケジュールに入れていく</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ー簡単操作方法ー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・色をコピーする場合はコピーしたい色のセルを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>クリック→ホーム→クリップボードにあるブラシ選択→色を付けたいセルをドラッグ→完了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・時間入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>開始時間を入力し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alt+Enter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を押すと、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>つのセル内で改行されるので、その後終了時間を入力する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>97558</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>175489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCB0B5D-E6B3-4853-B578-6FCF43E7830A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="-588" r="74682" b="44384"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21953103" y="8093365"/>
+          <a:ext cx="5031510" cy="5521035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>103910</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2750B402-1EE4-4007-9DD5-4EAF6505CE47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15734435" y="7691293"/>
+          <a:ext cx="893617" cy="578139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>↑ブラシ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4165,6 +4172,1945 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266BECED-2173-48F3-A380-70A324AFE0F1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AE46"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
+    <col min="2" max="31" width="7.75" style="2" customWidth="1"/>
+    <col min="32" max="32" width="9" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:31" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="211">
+        <v>43486</v>
+      </c>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="211">
+        <f>B4+1</f>
+        <v>43487</v>
+      </c>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="213">
+        <f>G4+1</f>
+        <v>43488</v>
+      </c>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="211">
+        <f>L4+1</f>
+        <v>43489</v>
+      </c>
+      <c r="R4" s="212"/>
+      <c r="S4" s="212"/>
+      <c r="T4" s="212"/>
+      <c r="U4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="211">
+        <f>Q4+1</f>
+        <v>43490</v>
+      </c>
+      <c r="W4" s="212"/>
+      <c r="X4" s="212"/>
+      <c r="Y4" s="212"/>
+      <c r="Z4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="211">
+        <f>V4+1</f>
+        <v>43491</v>
+      </c>
+      <c r="AB4" s="212"/>
+      <c r="AC4" s="212"/>
+      <c r="AD4" s="212"/>
+      <c r="AE4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="214"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="214"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="214"/>
+      <c r="R5" s="217"/>
+      <c r="S5" s="217"/>
+      <c r="T5" s="217"/>
+      <c r="U5" s="218"/>
+      <c r="V5" s="214"/>
+      <c r="W5" s="217"/>
+      <c r="X5" s="217"/>
+      <c r="Y5" s="217"/>
+      <c r="Z5" s="218"/>
+      <c r="AA5" s="208"/>
+      <c r="AB5" s="209"/>
+      <c r="AC5" s="209"/>
+      <c r="AD5" s="209"/>
+      <c r="AE5" s="210"/>
+    </row>
+    <row r="6" spans="1:31" s="10" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="106"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="103"/>
+    </row>
+    <row r="8" spans="1:31" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="110"/>
+      <c r="AA8" s="110"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="112"/>
+    </row>
+    <row r="9" spans="1:31" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="11">
+        <v>0.36458333333333298</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="14"/>
+    </row>
+    <row r="10" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="25"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="26"/>
+    </row>
+    <row r="11" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="32">
+        <v>0.38541666666666702</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="39"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" s="39"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="40"/>
+    </row>
+    <row r="12" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="32">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="116"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="40"/>
+    </row>
+    <row r="13" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="32">
+        <v>0.40625</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="W13" s="116"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="40"/>
+    </row>
+    <row r="14" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="32">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="47"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="39"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="40"/>
+    </row>
+    <row r="15" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="32">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="46"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="39"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="116"/>
+      <c r="X15" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB15" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="40"/>
+    </row>
+    <row r="16" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="32">
+        <v>0.4375</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="39"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="W16" s="116"/>
+      <c r="X16" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="40"/>
+    </row>
+    <row r="17" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="32">
+        <v>0.44791666666666702</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="50"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="39"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="39"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="40"/>
+    </row>
+    <row r="18" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="32">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="50"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="39"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB18" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="40"/>
+    </row>
+    <row r="19" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="32">
+        <v>0.46875</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="40"/>
+    </row>
+    <row r="20" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="32">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="50"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="40"/>
+    </row>
+    <row r="21" spans="1:31" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="32">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB21" s="69"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="70"/>
+    </row>
+    <row r="22" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="76"/>
+    </row>
+    <row r="23" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="32">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="40"/>
+    </row>
+    <row r="24" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="32">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="40"/>
+    </row>
+    <row r="25" spans="1:31" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="32">
+        <v>0.53125</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="70"/>
+    </row>
+    <row r="26" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="32">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="82"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="83"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="83"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="39"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="W26" s="72"/>
+      <c r="X26" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="83"/>
+      <c r="AE26" s="40"/>
+    </row>
+    <row r="27" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="32">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="50"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="87"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="50"/>
+      <c r="N27" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="87"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="T27" s="39"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="W27" s="39"/>
+      <c r="X27" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="87"/>
+      <c r="AE27" s="40"/>
+    </row>
+    <row r="28" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="32">
+        <v>0.5625</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="87"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="S28" s="34"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="87"/>
+      <c r="AE28" s="40"/>
+    </row>
+    <row r="29" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="32">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="87"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="34"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" s="39"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="W29" s="39"/>
+      <c r="X29" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="87"/>
+      <c r="AE29" s="40"/>
+    </row>
+    <row r="30" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="32">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="87"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="39"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" s="39"/>
+      <c r="S30" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="T30" s="50"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="W30" s="39"/>
+      <c r="X30" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="87"/>
+      <c r="AE30" s="40"/>
+    </row>
+    <row r="31" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="32">
+        <v>0.59375</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="M31" s="39"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="40"/>
+    </row>
+    <row r="32" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="32">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="40"/>
+      <c r="G32" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="50"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="W32" s="87"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="40"/>
+    </row>
+    <row r="33" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="32">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="T33" s="50"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="W33" s="87"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="40"/>
+    </row>
+    <row r="34" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="32">
+        <v>0.625</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="87"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="R34" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="U34" s="40"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="40"/>
+    </row>
+    <row r="35" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="32">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="M35" s="39"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="W35" s="87"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="40"/>
+    </row>
+    <row r="36" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="32">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="W36" s="87"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="40"/>
+    </row>
+    <row r="37" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="32">
+        <v>0.65625</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="40"/>
+    </row>
+    <row r="38" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="32">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="40"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="T38" s="39"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="40"/>
+    </row>
+    <row r="39" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="32">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="T39" s="39"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="40"/>
+    </row>
+    <row r="40" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="32">
+        <v>0.6875</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="40"/>
+    </row>
+    <row r="41" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="32">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="40"/>
+    </row>
+    <row r="42" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="32">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="87"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="87"/>
+      <c r="AE42" s="40"/>
+    </row>
+    <row r="43" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="32">
+        <v>0.71875</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="87"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="87"/>
+      <c r="AE43" s="40"/>
+    </row>
+    <row r="44" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="32">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="B44" s="36"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="40"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="39"/>
+      <c r="AC44" s="39"/>
+      <c r="AD44" s="39"/>
+      <c r="AE44" s="40"/>
+    </row>
+    <row r="45" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="32">
+        <v>0.73958333333333304</v>
+      </c>
+      <c r="B45" s="36"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="36"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="40"/>
+    </row>
+    <row r="46" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="88">
+        <v>0.75</v>
+      </c>
+      <c r="B46" s="89"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="89"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="90"/>
+      <c r="T46" s="90"/>
+      <c r="U46" s="92"/>
+      <c r="V46" s="89"/>
+      <c r="W46" s="90"/>
+      <c r="X46" s="90"/>
+      <c r="Y46" s="90"/>
+      <c r="Z46" s="92"/>
+      <c r="AA46" s="89"/>
+      <c r="AB46" s="90"/>
+      <c r="AC46" s="90"/>
+      <c r="AD46" s="90"/>
+      <c r="AE46" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="AA5:AE5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="V5:Z5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="44" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAAD83A-6EAE-43B2-B1D5-BCBD62F67957}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4189,62 +6135,62 @@
     <row r="3" spans="1:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="208">
+      <c r="B4" s="211">
         <v>45292</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
       <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="208">
+      <c r="G4" s="211">
         <f>B4+1</f>
         <v>45293</v>
       </c>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
       <c r="K4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="208">
+      <c r="L4" s="211">
         <f>G4+1</f>
         <v>45294</v>
       </c>
-      <c r="M4" s="209"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
       <c r="P4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="208">
+      <c r="Q4" s="211">
         <f>L4+1</f>
         <v>45295</v>
       </c>
-      <c r="R4" s="209"/>
-      <c r="S4" s="209"/>
-      <c r="T4" s="209"/>
+      <c r="R4" s="212"/>
+      <c r="S4" s="212"/>
+      <c r="T4" s="212"/>
       <c r="U4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="208">
+      <c r="V4" s="211">
         <f>Q4+1</f>
         <v>45296</v>
       </c>
-      <c r="W4" s="209"/>
-      <c r="X4" s="209"/>
-      <c r="Y4" s="209"/>
+      <c r="W4" s="212"/>
+      <c r="X4" s="212"/>
+      <c r="Y4" s="212"/>
       <c r="Z4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="208">
+      <c r="AA4" s="211">
         <f>V4+1</f>
         <v>45297</v>
       </c>
-      <c r="AB4" s="209"/>
-      <c r="AC4" s="209"/>
-      <c r="AD4" s="209"/>
+      <c r="AB4" s="212"/>
+      <c r="AC4" s="212"/>
+      <c r="AD4" s="212"/>
       <c r="AE4" s="4" t="s">
         <v>5</v>
       </c>
@@ -4253,36 +6199,36 @@
       <c r="A5" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="212"/>
-      <c r="L5" s="210"/>
-      <c r="M5" s="211"/>
-      <c r="N5" s="211"/>
-      <c r="O5" s="211"/>
-      <c r="P5" s="212"/>
-      <c r="Q5" s="210"/>
-      <c r="R5" s="211"/>
-      <c r="S5" s="211"/>
-      <c r="T5" s="211"/>
-      <c r="U5" s="212"/>
-      <c r="V5" s="213"/>
-      <c r="W5" s="214"/>
-      <c r="X5" s="214"/>
-      <c r="Y5" s="214"/>
-      <c r="Z5" s="215"/>
-      <c r="AA5" s="210"/>
-      <c r="AB5" s="211"/>
-      <c r="AC5" s="211"/>
-      <c r="AD5" s="211"/>
-      <c r="AE5" s="212"/>
+      <c r="B5" s="219"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="219"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="220"/>
+      <c r="P5" s="221"/>
+      <c r="Q5" s="219"/>
+      <c r="R5" s="220"/>
+      <c r="S5" s="220"/>
+      <c r="T5" s="220"/>
+      <c r="U5" s="221"/>
+      <c r="V5" s="222"/>
+      <c r="W5" s="223"/>
+      <c r="X5" s="223"/>
+      <c r="Y5" s="223"/>
+      <c r="Z5" s="224"/>
+      <c r="AA5" s="219"/>
+      <c r="AB5" s="220"/>
+      <c r="AC5" s="220"/>
+      <c r="AD5" s="220"/>
+      <c r="AE5" s="221"/>
     </row>
     <row r="6" spans="1:31" s="1" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="107" t="s">
@@ -5907,1943 +7853,4 @@
   <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266BECED-2173-48F3-A380-70A324AFE0F1}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AE46"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
-    <col min="2" max="31" width="7.75" style="2" customWidth="1"/>
-    <col min="32" max="32" width="9" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:31" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="208">
-        <v>43486</v>
-      </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="208">
-        <f>B4+1</f>
-        <v>43487</v>
-      </c>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="219">
-        <f>G4+1</f>
-        <v>43488</v>
-      </c>
-      <c r="M4" s="209"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="208">
-        <f>L4+1</f>
-        <v>43489</v>
-      </c>
-      <c r="R4" s="209"/>
-      <c r="S4" s="209"/>
-      <c r="T4" s="209"/>
-      <c r="U4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" s="208">
-        <f>Q4+1</f>
-        <v>43490</v>
-      </c>
-      <c r="W4" s="209"/>
-      <c r="X4" s="209"/>
-      <c r="Y4" s="209"/>
-      <c r="Z4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="208">
-        <f>V4+1</f>
-        <v>43491</v>
-      </c>
-      <c r="AB4" s="209"/>
-      <c r="AC4" s="209"/>
-      <c r="AD4" s="209"/>
-      <c r="AE4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="220"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="223"/>
-      <c r="O5" s="223"/>
-      <c r="P5" s="224"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="223"/>
-      <c r="S5" s="223"/>
-      <c r="T5" s="223"/>
-      <c r="U5" s="224"/>
-      <c r="V5" s="220"/>
-      <c r="W5" s="223"/>
-      <c r="X5" s="223"/>
-      <c r="Y5" s="223"/>
-      <c r="Z5" s="224"/>
-      <c r="AA5" s="216"/>
-      <c r="AB5" s="217"/>
-      <c r="AC5" s="217"/>
-      <c r="AD5" s="217"/>
-      <c r="AE5" s="218"/>
-    </row>
-    <row r="6" spans="1:31" s="10" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE6" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="106"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="101"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="103"/>
-    </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="112"/>
-    </row>
-    <row r="9" spans="1:31" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="11">
-        <v>0.36458333333333298</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="14"/>
-    </row>
-    <row r="10" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="17">
-        <v>0.375</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="S10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="25"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="115"/>
-      <c r="X10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="26"/>
-    </row>
-    <row r="11" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="32">
-        <v>0.38541666666666702</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="R11" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="S11" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="T11" s="39"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="40"/>
-    </row>
-    <row r="12" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="32">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="W12" s="116"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="40"/>
-    </row>
-    <row r="13" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="32">
-        <v>0.40625</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="W13" s="116"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="40"/>
-    </row>
-    <row r="14" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="32">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="47"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14" s="39"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="40"/>
-    </row>
-    <row r="15" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="32">
-        <v>0.42708333333333298</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="S15" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="W15" s="116"/>
-      <c r="X15" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y15" s="116"/>
-      <c r="Z15" s="98"/>
-      <c r="AA15" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB15" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="40"/>
-    </row>
-    <row r="16" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="32">
-        <v>0.4375</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="W16" s="116"/>
-      <c r="X16" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="40"/>
-    </row>
-    <row r="17" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="32">
-        <v>0.44791666666666702</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="T17" s="39"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y17" s="116"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="40"/>
-    </row>
-    <row r="18" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="32">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="M18" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="S18" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="T18" s="39"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="116"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB18" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="40"/>
-    </row>
-    <row r="19" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="32">
-        <v>0.46875</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="40"/>
-    </row>
-    <row r="20" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="32">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="40"/>
-    </row>
-    <row r="21" spans="1:31" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="32">
-        <v>0.48958333333333298</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="70"/>
-    </row>
-    <row r="22" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="76"/>
-    </row>
-    <row r="23" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="32">
-        <v>0.51041666666666696</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="40"/>
-    </row>
-    <row r="24" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="32">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="40"/>
-    </row>
-    <row r="25" spans="1:31" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="32">
-        <v>0.53125</v>
-      </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="70"/>
-    </row>
-    <row r="26" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="32">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="B26" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="83"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="83"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T26" s="39"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="W26" s="72"/>
-      <c r="X26" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="76"/>
-      <c r="AA26" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="83"/>
-      <c r="AE26" s="40"/>
-    </row>
-    <row r="27" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="32">
-        <v>0.55208333333333304</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="87"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="50"/>
-      <c r="N27" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="O27" s="87"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="S27" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="T27" s="39"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="W27" s="39"/>
-      <c r="X27" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="40"/>
-    </row>
-    <row r="28" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="32">
-        <v>0.5625</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" s="87"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="S28" s="34"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="40"/>
-    </row>
-    <row r="29" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="32">
-        <v>0.57291666666666696</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="87"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="34"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="T29" s="39"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="W29" s="39"/>
-      <c r="X29" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="87"/>
-      <c r="AE29" s="40"/>
-    </row>
-    <row r="30" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="32">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" s="87"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="39"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="39"/>
-      <c r="S30" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="T30" s="50"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="W30" s="39"/>
-      <c r="X30" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="40"/>
-      <c r="AA30" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="87"/>
-      <c r="AE30" s="40"/>
-    </row>
-    <row r="31" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="32">
-        <v>0.59375</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="M31" s="39"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="40"/>
-    </row>
-    <row r="32" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="32">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="50"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="W32" s="87"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="40"/>
-    </row>
-    <row r="33" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="32">
-        <v>0.61458333333333304</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="H33" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="R33" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="T33" s="50"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="W33" s="87"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="40"/>
-    </row>
-    <row r="34" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="32">
-        <v>0.625</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" s="87"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="R34" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="U34" s="40"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="87"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="40"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="40"/>
-    </row>
-    <row r="35" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="32">
-        <v>0.63541666666666696</v>
-      </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="M35" s="39"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="W35" s="87"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="40"/>
-      <c r="AA35" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="40"/>
-    </row>
-    <row r="36" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="32">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="W36" s="87"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="40"/>
-      <c r="AA36" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="40"/>
-    </row>
-    <row r="37" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="32">
-        <v>0.65625</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="40"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="40"/>
-    </row>
-    <row r="38" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="32">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="T38" s="39"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="39"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="39"/>
-      <c r="AE38" s="40"/>
-    </row>
-    <row r="39" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="32">
-        <v>0.67708333333333304</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="T39" s="39"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39"/>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="40"/>
-    </row>
-    <row r="40" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="32">
-        <v>0.6875</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="39"/>
-      <c r="AC40" s="39"/>
-      <c r="AD40" s="39"/>
-      <c r="AE40" s="40"/>
-    </row>
-    <row r="41" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="32">
-        <v>0.69791666666666696</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="39"/>
-      <c r="AC41" s="39"/>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="40"/>
-    </row>
-    <row r="42" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="32">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="I42" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="J42" s="87"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC42" s="39"/>
-      <c r="AD42" s="87"/>
-      <c r="AE42" s="40"/>
-    </row>
-    <row r="43" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="32">
-        <v>0.71875</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="J43" s="87"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
-      <c r="Z43" s="40"/>
-      <c r="AA43" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC43" s="39"/>
-      <c r="AD43" s="87"/>
-      <c r="AE43" s="40"/>
-    </row>
-    <row r="44" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="32">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
-      <c r="Z44" s="40"/>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="39"/>
-      <c r="AC44" s="39"/>
-      <c r="AD44" s="39"/>
-      <c r="AE44" s="40"/>
-    </row>
-    <row r="45" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="32">
-        <v>0.73958333333333304</v>
-      </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
-      <c r="Z45" s="40"/>
-      <c r="AA45" s="36"/>
-      <c r="AB45" s="39"/>
-      <c r="AC45" s="39"/>
-      <c r="AD45" s="39"/>
-      <c r="AE45" s="40"/>
-    </row>
-    <row r="46" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="88">
-        <v>0.75</v>
-      </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="90"/>
-      <c r="P46" s="92"/>
-      <c r="Q46" s="89"/>
-      <c r="R46" s="90"/>
-      <c r="S46" s="90"/>
-      <c r="T46" s="90"/>
-      <c r="U46" s="92"/>
-      <c r="V46" s="89"/>
-      <c r="W46" s="90"/>
-      <c r="X46" s="90"/>
-      <c r="Y46" s="90"/>
-      <c r="Z46" s="92"/>
-      <c r="AA46" s="89"/>
-      <c r="AB46" s="90"/>
-      <c r="AC46" s="90"/>
-      <c r="AD46" s="90"/>
-      <c r="AE46" s="92"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AA5:AE5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="V5:Z5"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="44" fitToWidth="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>